--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Ackr2.xlsx
@@ -534,22 +534,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H2">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1374367385583333</v>
+        <v>0.01110845222833333</v>
       </c>
       <c r="R2">
-        <v>1.236930647025</v>
+        <v>0.09997607005499999</v>
       </c>
       <c r="S2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="T2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>14.500353</v>
       </c>
       <c r="I3">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J3">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -638,10 +638,10 @@
         <v>2.714248576305</v>
       </c>
       <c r="S3">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="T3">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H4">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I4">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J4">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.06437664440166667</v>
+        <v>2.22327299085</v>
       </c>
       <c r="R4">
-        <v>0.5793897996149999</v>
+        <v>20.00945691765</v>
       </c>
       <c r="S4">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="T4">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H5">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I5">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J5">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.02632954609166667</v>
+        <v>0.03445418622666667</v>
       </c>
       <c r="R5">
-        <v>0.236965914825</v>
+        <v>0.31008767604</v>
       </c>
       <c r="S5">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="T5">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H6">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I6">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J6">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.1764316377166666</v>
+        <v>0.4732675516816667</v>
       </c>
       <c r="R6">
-        <v>1.58788473945</v>
+        <v>4.259407965135</v>
       </c>
       <c r="S6">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="T6">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
     </row>
   </sheetData>
